--- a/Arduino/采购清单.xlsx
+++ b/Arduino/采购清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Qiusuo\Arduino\QiuSuo\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoanqi/Documents/GitHub/QiuSuo/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D07CDD-9EBB-4C87-AF8C-3807618DF8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F25B2B-0F8C-1840-9EBA-A43ACA1BE94C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <t>esp32开发套件</t>
   </si>
   <si>
-    <t>arduino内存不太够，非初期实验必需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3 hihi:/</t>
     </r>
@@ -198,6 +194,91 @@
   </si>
   <si>
     <t>备注：电机在考虑另一家便宜一点的，正在协商，如果成功，可以把电机价格降到150，其它微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ha:/《p9BvcwrilK1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>💲👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陶十宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【原装意大利Arduino Nano  ATMEGA328 FT232RL 支持win7Win8win10】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1👈 hi:/《fHelcwr8za7✔👉掏一宝👈【七星虫 USB连接线 mini口T型口/usb口/micro口 USB数据线延长线】</t>
+  </si>
+  <si>
+    <t>Arduino Nano线（mini）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝上有一款非正版的Nano，只要50左右，不清楚功能是否齐全，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino的wifi和蓝牙模块，可以暂且不买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +320,20 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,20 +641,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="124.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="124.5" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -573,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -581,13 +676,13 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -606,94 +701,119 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>9.5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B2:B11)</f>
+        <v>1090.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>27</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2:B9)</f>
-        <v>866.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
